--- a/StagingTemplates/Staging.CustomReport_Indicator.xlsx
+++ b/StagingTemplates/Staging.CustomReport_Indicator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,10 @@
     <t>CustomReport_Indicator_ID</t>
   </si>
   <si>
-    <t>CustomReportSourceKey</t>
+    <t>CustomReportBusinessKey</t>
   </si>
   <si>
-    <t>IndicatorSourceKey</t>
+    <t>IndicatorBusinessKey</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -371,8 +371,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/StagingTemplates/Staging.CustomReport_Indicator.xlsx
+++ b/StagingTemplates/Staging.CustomReport_Indicator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnicoloud\Documents\My Docs\Meerkat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Aphelion\Clients\Aphelion\Meerkat\generate staging templates macro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/StagingTemplates/Staging.CustomReport_Indicator.xlsx
+++ b/StagingTemplates/Staging.CustomReport_Indicator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Aphelion\Clients\Aphelion\Meerkat\generate staging templates macro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aphelion\Aphelion\Meerkat\StagingTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25050" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/StagingTemplates/Staging.CustomReport_Indicator.xlsx
+++ b/StagingTemplates/Staging.CustomReport_Indicator.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aphelion\Aphelion\Meerkat\StagingTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\Meerkat\StagingTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="25050" windowHeight="11175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/StagingTemplates/Staging.CustomReport_Indicator.xlsx
+++ b/StagingTemplates/Staging.CustomReport_Indicator.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\Meerkat\StagingTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Meerkat\StagingTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,21 +363,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
